--- a/biology/Médecine/Clofazimine/Clofazimine.xlsx
+++ b/biology/Médecine/Clofazimine/Clofazimine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La clofazamine (DCI) ou riminophénazine est un médicament antibactérien  antilépreux. 
@@ -515,7 +527,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il agit comme bactériostatique sur le bacille de la lèpre, mais également sur des mycobactéries atypiques.
 D'après BIAM, il y a absence de résistances connues pas plus que de résistance croisée avec la rifampicine et les sulfones (par exemple la dapsone). 
@@ -550,10 +564,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lèpre
-Tuberculose
-Dans les formes multi-résistantes de la tuberculose, les résultats de l'antibiothérapie comprenant la clofazimine sont comparables à ceux comportant la pyrazinamide[2].
-Il existe cependant des résistances croisées avec la bédaquiline[3].
+          <t>Tuberculose</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les formes multi-résistantes de la tuberculose, les résultats de l'antibiothérapie comprenant la clofazimine sont comparables à ceux comportant la pyrazinamide.
+Il existe cependant des résistances croisées avec la bédaquiline.
 </t>
         </is>
       </c>
@@ -582,7 +600,9 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Coloration rouge de la peau, des larmes, de l'urine et de la conjonctive (et dépôt brun sur la cornée)
 Diarrhée
@@ -614,7 +634,9 @@
           <t>Délivrance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Réservé à l'usage hospitalier en France. Utilisé en général en association avec la rifampicine et la dapsone.
 </t>
@@ -645,12 +667,14 @@
           <t>Spécialités</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Belgique : non enregistré
 France : LAMPRENE® capsules
 Suisse : n'est plus commercialisé
-Le riminophénazine est un dérivé de la clofazimine en cours de test dans la tuberculose et qui a l'avantage de ne pas s'accumuler dans les tissus, et donc sans coloration de la peau[4].
+Le riminophénazine est un dérivé de la clofazimine en cours de test dans la tuberculose et qui a l'avantage de ne pas s'accumuler dans les tissus, et donc sans coloration de la peau.
 </t>
         </is>
       </c>
